--- a/VersionRecords/Version 5.2.3 20170106/版本Bug和特性计划及评审表v5.2.3_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.3 20170106/版本Bug和特性计划及评审表v5.2.3_马丁组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="98">
   <si>
     <t>No</t>
   </si>
@@ -338,6 +338,29 @@
   </si>
   <si>
     <t>DV-2025</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>安栋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>免测</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东大屏埋点无效</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,6 +1040,15 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1044,13 +1076,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="12" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1439,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1449,7 +1475,7 @@
     <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
     <col min="4" max="4" width="43" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="33" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="32" customWidth="1"/>
@@ -1461,7 +1487,7 @@
     <col min="15" max="15" width="10" style="33" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
     <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="78" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" style="34" customWidth="1"/>
     <col min="20" max="20" width="17" style="34" customWidth="1"/>
     <col min="21" max="21" width="14.125" style="34" customWidth="1"/>
@@ -1588,7 +1614,7 @@
       <c r="Q2" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="88" t="s">
+      <c r="R2" s="79" t="s">
         <v>88</v>
       </c>
       <c r="S2" s="44"/>
@@ -1647,7 +1673,7 @@
       <c r="Q3" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="R3" s="88" t="s">
+      <c r="R3" s="79" t="s">
         <v>89</v>
       </c>
       <c r="S3" s="44"/>
@@ -1706,7 +1732,7 @@
       <c r="Q4" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="79" t="s">
         <v>91</v>
       </c>
       <c r="S4" s="44"/>
@@ -1765,7 +1791,7 @@
       <c r="Q5" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="R5" s="88" t="s">
+      <c r="R5" s="79" t="s">
         <v>90</v>
       </c>
       <c r="S5" s="44"/>
@@ -1775,25 +1801,59 @@
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="39">
+        <v>42741</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="39">
+        <v>42741</v>
+      </c>
       <c r="K6" s="38"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="47"/>
+      <c r="L6" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="39">
+        <v>42741</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>86</v>
+      </c>
       <c r="R6" s="47"/>
-      <c r="S6" s="44"/>
+      <c r="S6" s="89">
+        <v>7023</v>
+      </c>
       <c r="T6" s="44"/>
       <c r="U6" s="52"/>
       <c r="V6" s="55"/>
@@ -1842,7 +1902,7 @@
       <c r="O8" s="47"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="47"/>
-      <c r="R8" s="86"/>
+      <c r="R8" s="77"/>
       <c r="S8" s="56"/>
       <c r="T8" s="56"/>
       <c r="U8" s="52"/>
@@ -2211,7 +2271,7 @@
       <c r="O23" s="47"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="86"/>
+      <c r="R23" s="77"/>
       <c r="S23" s="58"/>
       <c r="T23" s="58"/>
       <c r="U23" s="58"/>
@@ -2331,7 +2391,7 @@
       <c r="O28" s="47"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="47"/>
-      <c r="R28" s="86"/>
+      <c r="R28" s="77"/>
       <c r="S28" s="56"/>
       <c r="T28" s="56"/>
       <c r="U28" s="56"/>
@@ -2717,7 +2777,7 @@
       <c r="O44" s="47"/>
       <c r="P44" s="39"/>
       <c r="Q44" s="47"/>
-      <c r="R44" s="86"/>
+      <c r="R44" s="77"/>
       <c r="S44" s="56"/>
       <c r="T44" s="56"/>
       <c r="U44" s="56"/>
@@ -2741,7 +2801,7 @@
       <c r="O45" s="47"/>
       <c r="P45" s="39"/>
       <c r="Q45" s="47"/>
-      <c r="R45" s="86"/>
+      <c r="R45" s="77"/>
       <c r="S45" s="56"/>
       <c r="T45" s="56"/>
       <c r="U45" s="56"/>
@@ -5613,6 +5673,7 @@
     <hyperlink ref="R3" r:id="rId2"/>
     <hyperlink ref="R5" r:id="rId3"/>
     <hyperlink ref="R4" r:id="rId4"/>
+    <hyperlink ref="S6" r:id="rId5" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=7023"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5791,19 +5852,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5841,8 +5902,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5854,8 +5915,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5867,8 +5928,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5880,8 +5941,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5893,8 +5954,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5906,8 +5967,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5919,8 +5980,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5932,8 +5993,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5994,36 +6055,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6308,36 +6369,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6622,36 +6683,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6938,36 +6999,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="86"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
